--- a/Data/Output/Final Output.xlsx
+++ b/Data/Output/Final Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\ASU\2021 Spring\Applied Project\ASU_Applied_Project_2021\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A2293E-94FD-46D6-AFE0-D46AFFC0BCE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F7DAC3-390A-40FB-BF55-E4368C3E9EEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-10005" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>BlackPink</t>
   </si>
@@ -231,13 +231,19 @@
   </si>
   <si>
     <t>r/Sneakers/</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>overlap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +274,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -306,11 +320,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -322,6 +333,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -606,23 +624,31 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
@@ -633,13 +659,17 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="C2">
+        <v>698</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
@@ -647,12 +677,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>1023</v>
+      </c>
+      <c r="D3" s="8"/>
       <c r="E3" t="s">
         <v>21</v>
       </c>
@@ -661,12 +695,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C4">
+        <v>1190</v>
+      </c>
+      <c r="D4" s="8"/>
       <c r="E4" t="s">
         <v>23</v>
       </c>
@@ -675,30 +713,38 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="C6">
+        <v>605</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C7">
+        <v>804</v>
+      </c>
+      <c r="D7" s="8"/>
       <c r="E7" t="s">
         <v>26</v>
       </c>
@@ -707,10 +753,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="6"/>
       <c r="E8" t="s">
         <v>28</v>
       </c>
@@ -719,12 +765,16 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C9">
+        <v>428</v>
+      </c>
+      <c r="D9" s="8"/>
       <c r="E9" t="s">
         <v>30</v>
       </c>
@@ -733,32 +783,44 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="C10">
+        <v>860</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="C11">
+        <v>1035</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>4</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C12">
+        <v>1326</v>
+      </c>
+      <c r="D12" s="8"/>
       <c r="E12" t="s">
         <v>33</v>
       </c>
@@ -767,30 +829,38 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>5</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="C13">
+        <v>1505</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="E14" s="3" t="s">
+      <c r="B14" s="6"/>
+      <c r="E14" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>1</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15" s="8"/>
       <c r="E15" t="s">
         <v>36</v>
       </c>
@@ -799,12 +869,16 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>2</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C16">
+        <v>260</v>
+      </c>
+      <c r="D16" s="8"/>
       <c r="E16" t="s">
         <v>38</v>
       </c>
@@ -812,15 +886,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="5:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E18" s="3" t="s">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f>SUM(C2:C16)</f>
+        <v>9764</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E18" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>41</v>
       </c>
@@ -828,15 +906,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E20" s="6" t="s">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>45</v>
       </c>
@@ -844,71 +922,71 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E22" s="6" t="s">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="6" t="s">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="6" t="s">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E25" s="6" t="s">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E26" s="6" t="s">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="5:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E28" s="3" t="s">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E28" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E29" s="6" t="s">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E29" s="5" t="s">
         <v>55</v>
       </c>
       <c r="G29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="5:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E31" s="3" t="s">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E32" s="6" t="s">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E32" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E33" s="5"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="5:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -921,10 +999,10 @@
       </c>
     </row>
     <row r="36" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E36" s="5"/>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="5:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -937,7 +1015,7 @@
       </c>
     </row>
     <row r="39" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="5" t="s">
         <v>64</v>
       </c>
       <c r="G39" t="s">
@@ -945,14 +1023,18 @@
       </c>
     </row>
     <row r="40" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E40" s="5"/>
+      <c r="E40" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D9:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Output/Final Output.xlsx
+++ b/Data/Output/Final Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\ASU\2021 Spring\Applied Project\ASU_Applied_Project_2021\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F7DAC3-390A-40FB-BF55-E4368C3E9EEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31293D1E-67CD-4514-89EE-BF2521894003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10005" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -333,11 +333,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -624,7 +624,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,14 +638,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -668,7 +668,9 @@
       <c r="C2">
         <v>698</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="7">
+        <v>698</v>
+      </c>
       <c r="E2" s="3" t="s">
         <v>19</v>
       </c>
@@ -686,7 +688,7 @@
       <c r="C3">
         <v>1023</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="7"/>
       <c r="E3" t="s">
         <v>21</v>
       </c>
@@ -704,7 +706,7 @@
       <c r="C4">
         <v>1190</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="7"/>
       <c r="E4" t="s">
         <v>23</v>
       </c>
@@ -713,10 +715,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="8"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -729,7 +731,9 @@
       <c r="C6">
         <v>605</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="7">
+        <v>605</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
@@ -744,7 +748,7 @@
       <c r="C7">
         <v>804</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="7"/>
       <c r="E7" t="s">
         <v>26</v>
       </c>
@@ -753,10 +757,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="8"/>
       <c r="E8" t="s">
         <v>28</v>
       </c>
@@ -774,7 +778,9 @@
       <c r="C9">
         <v>428</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="7">
+        <v>428</v>
+      </c>
       <c r="E9" t="s">
         <v>30</v>
       </c>
@@ -792,7 +798,7 @@
       <c r="C10">
         <v>860</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -805,7 +811,7 @@
       <c r="C11">
         <v>1035</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
@@ -820,7 +826,7 @@
       <c r="C12">
         <v>1326</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="7"/>
       <c r="E12" t="s">
         <v>33</v>
       </c>
@@ -838,14 +844,14 @@
       <c r="C13">
         <v>1505</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="8"/>
       <c r="E14" s="2" t="s">
         <v>35</v>
       </c>
@@ -860,7 +866,9 @@
       <c r="C15">
         <v>30</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="7">
+        <v>30</v>
+      </c>
       <c r="E15" t="s">
         <v>36</v>
       </c>
@@ -878,7 +886,7 @@
       <c r="C16">
         <v>260</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="7"/>
       <c r="E16" t="s">
         <v>38</v>
       </c>
